--- a/蓝牙指令.xlsx
+++ b/蓝牙指令.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF1A4C28-3145-427E-A57A-EA51E09A84E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,26 +33,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>610d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舵机速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6474xxXX0d0a         xx delaytime   XX looptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740xXXXXxx0d0a    XXXX motor  xx speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电钢时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读rfid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次放完到达拐点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬杆臂松手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬杆启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640xXXxx0d0a           XX×xx 电缸时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右手爪子放且舵机转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50710d0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4C710d0a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>670xXXXX0d0a              1780 6f4  1920 780</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50710d0a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>610d0a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,45 +434,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/蓝牙指令.xlsx
+++ b/蓝牙指令.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD0B49C9-386E-428F-84F1-47D4ECFCE707}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爬杆启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>46710d0a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,13 +107,29 @@
   </si>
   <si>
     <t>670xXXXX0d0a              1780 6f4  1920 780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电缸后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬杆启动Fq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>636c630d0a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,21 +447,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -456,39 +469,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -496,20 +509,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -517,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -525,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -533,12 +546,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/蓝牙指令.xlsx
+++ b/蓝牙指令.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD0B49C9-386E-428F-84F1-47D4ECFCE707}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68D3EAC6-A16B-407B-A549-7D8F58DF5382}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/蓝牙指令.xlsx
+++ b/蓝牙指令.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68D3EAC6-A16B-407B-A549-7D8F58DF5382}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CEC3C42-D66F-4991-9B25-953DC6401D9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
